--- a/research/Operations.xlsx
+++ b/research/Operations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mso\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mso\Documents\GitHub\NominaxRonVM\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BB4851-E24A-469C-8849-5595E63988F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477E661F-3463-4578-8190-CF488B2B95D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1995" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="541">
   <si>
     <t>Name</t>
   </si>
@@ -1008,12 +1008,6 @@
   </si>
   <si>
     <t>x: f32; y: f32; z: f32</t>
-  </si>
-  <si>
-    <t>x: i32; y: i32; to: u32</t>
-  </si>
-  <si>
-    <t>x: i32;  y: u32</t>
   </si>
   <si>
     <t>x == 0</t>
@@ -2136,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2175,7 +2169,7 @@
         <v>77</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:16384">
@@ -2200,7 +2194,7 @@
     </row>
     <row r="3" spans="1:16384">
       <c r="A3" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -18616,10 +18610,10 @@
     </row>
     <row r="5" spans="1:16384" s="23" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>111</v>
@@ -18628,16 +18622,16 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -35018,10 +35012,10 @@
     </row>
     <row r="6" spans="1:16384">
       <c r="A6" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>113</v>
@@ -35032,7 +35026,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -35050,7 +35044,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -35092,7 +35086,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>21</v>
@@ -35137,7 +35131,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -35157,7 +35151,7 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -35177,7 +35171,7 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -35197,7 +35191,7 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -35220,7 +35214,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -35238,16 +35232,16 @@
         <v>37</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>322</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -35264,16 +35258,16 @@
         <v>37</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>322</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -35290,16 +35284,16 @@
         <v>37</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>321</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -35316,16 +35310,16 @@
         <v>37</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>321</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -35342,16 +35336,16 @@
         <v>37</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>321</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -35368,16 +35362,16 @@
         <v>37</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>321</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -35394,16 +35388,16 @@
         <v>37</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>321</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -35420,16 +35414,16 @@
         <v>37</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>321</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -35453,7 +35447,7 @@
         <v>78</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -35477,7 +35471,7 @@
         <v>79</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -35501,7 +35495,7 @@
         <v>80</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -35525,7 +35519,7 @@
         <v>81</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -35549,12 +35543,12 @@
         <v>82</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>67</v>
@@ -35573,12 +35567,12 @@
         <v>83</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>68</v>
@@ -35597,12 +35591,12 @@
         <v>84</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>69</v>
@@ -35621,7 +35615,7 @@
         <v>85</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -35645,7 +35639,7 @@
         <v>86</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -35669,12 +35663,12 @@
         <v>87</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>72</v>
@@ -35691,12 +35685,12 @@
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>73</v>
@@ -35713,7 +35707,7 @@
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -35737,7 +35731,7 @@
         <v>88</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -35761,7 +35755,7 @@
         <v>92</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -35785,7 +35779,7 @@
         <v>95</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -35809,7 +35803,7 @@
         <v>78</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -35833,7 +35827,7 @@
         <v>79</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -35857,7 +35851,7 @@
         <v>80</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -35881,7 +35875,7 @@
         <v>81</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -35905,7 +35899,7 @@
         <v>106</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -35927,435 +35921,435 @@
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>320</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>319</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>318</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>80</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>317</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>81</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:16362">
       <c r="A49" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>316</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:16362">
       <c r="A50" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>315</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>83</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:16362">
       <c r="A51" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>314</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>84</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:16362">
       <c r="A52" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>313</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>85</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:16362">
       <c r="A53" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>312</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>86</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:16362">
       <c r="A54" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>311</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:16362">
       <c r="A55" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>310</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:16362">
       <c r="A56" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:16362">
       <c r="A57" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>394</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>88</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:16362">
       <c r="A58" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:16362">
       <c r="A59" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:16362">
       <c r="A60" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>80</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:16362">
       <c r="A61" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>81</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:16362">
       <c r="A62" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="3"/>
@@ -52714,924 +52708,924 @@
     </row>
     <row r="63" spans="1:16362">
       <c r="A63" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:16362">
       <c r="A64" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>80</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>81</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>83</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>84</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G71" s="13" t="s">
         <v>85</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>86</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G74" s="13"/>
       <c r="H74" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>88</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>80</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>81</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>80</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>81</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G87" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>83</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G89" s="13" t="s">
         <v>84</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G90" s="13" t="s">
         <v>85</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>86</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G92" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G93" s="13"/>
       <c r="H93" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G94" s="13"/>
       <c r="H94" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G95" s="13" t="s">
         <v>88</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G96" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G98" s="13" t="s">
         <v>80</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C99" s="20" t="s">
         <v>309</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G99" s="13" t="s">
         <v>81</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>82</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C101" s="20" t="s">
         <v>307</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G101" s="13"/>
       <c r="H101" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -54910,7 +54904,7 @@
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D208" s="14"/>
       <c r="E208" s="14"/>
